--- a/Prototype/PHPSCRIPTS/Experiments/RFS2016.xlsx
+++ b/Prototype/PHPSCRIPTS/Experiments/RFS2016.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samantha\Documents\SS151\SYSADD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHPExcel-1.8\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
-    <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,7 +446,7 @@
       <alignment vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -457,7 +457,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
@@ -468,63 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -847,7 +846,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,126 +870,126 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
-      <c r="AA4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="AA4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="15"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="33"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="19" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19" t="s">
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="19" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="19" t="s">
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="21"/>
-      <c r="AA5" s="19" t="s">
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
+      <c r="AA5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="19" t="s">
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="19" t="s">
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="19" t="s">
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="19" t="s">
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="21"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="30"/>
     </row>
     <row r="6" spans="1:44" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1109,144 +1108,144 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="24"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="24"/>
-      <c r="AQ7" s="16"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="17"/>
+      <c r="AQ7" s="12"/>
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="27"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="10"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="27"/>
-      <c r="AQ8" s="17"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="20"/>
+      <c r="AQ8" s="13"/>
       <c r="AR8" s="5"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="30"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="23"/>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="30"/>
-      <c r="AQ9" s="18"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="23"/>
+      <c r="AQ9" s="14"/>
       <c r="AR9" s="6"/>
     </row>
   </sheetData>
